--- a/xlsx/M&E/indicadores_form_3.xlsx
+++ b/xlsx/M&E/indicadores_form_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_micaia\xlsx\M&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4811446-6773-4637-876F-B67BA4100D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F0337-7DAC-4728-8C8C-C394C3BC7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="14040" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1305,6 +1305,9 @@
     <t>. &lt;= today()</t>
   </si>
   <si>
+    <t>http://cavateco.terrafirma.co.mz:8080/micaia_manica/submission</t>
+  </si>
+  <si>
     <t>"Micaia - Manica"</t>
   </si>
   <si>
@@ -1321,18 +1324,22 @@
   </si>
   <si>
     <t>pulldata('povoado_names_micaia_manica', 'village_name',  'village_id_key', ${village_id})</t>
-  </si>
-  <si>
-    <t>http://cavateco.terrafirma.co.mz:8080/micaia_manica/submission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1592,6 +1599,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1624,434 +1639,435 @@
   </borders>
   <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="245"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="245" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="234" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="245"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="245" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="245" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="244" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="244" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="246">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2638,11 +2654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2765,8 +2781,9 @@
         <v>370</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>405</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="O7" s="86"/>
     </row>
     <row r="8" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -2779,6 +2796,8 @@
       <c r="L8" s="21" t="s">
         <v>36</v>
       </c>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
     </row>
     <row r="9" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
@@ -2787,8 +2806,9 @@
       <c r="B9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="79" t="s">
-        <v>406</v>
+      <c r="N9" s="86"/>
+      <c r="O9" s="87" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2819,51 +2839,51 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+    <row r="13" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="80" t="s">
         <v>397</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="J13" s="80" t="s">
+      <c r="J13" s="79" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="80" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
+    <row r="14" spans="1:16" s="79" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="80" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="81" t="s">
         <v>400</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="F14" s="83" t="s">
+      <c r="D14" s="81"/>
+      <c r="F14" s="82" t="s">
         <v>401</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="J14" s="80" t="s">
+      <c r="G14" s="82"/>
+      <c r="J14" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="84" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+      <c r="L14" s="83" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="80" t="s">
         <v>402</v>
       </c>
-      <c r="N15" s="84" t="s">
-        <v>408</v>
+      <c r="N15" s="83" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2947,7 +2967,7 @@
       <c r="A20" s="77" t="s">
         <v>380</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="84" t="s">
         <v>381</v>
       </c>
       <c r="C20" s="77" t="s">
@@ -2956,20 +2976,22 @@
       <c r="J20" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="79" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="80" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
+      <c r="L20" s="87" t="s">
+        <v>410</v>
+      </c>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+    </row>
+    <row r="21" spans="1:14" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="80" t="s">
         <v>358</v>
       </c>
-      <c r="L21" s="84"/>
-      <c r="N21" s="84" t="s">
-        <v>410</v>
+      <c r="L21" s="83"/>
+      <c r="N21" s="83" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -5020,7 +5042,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A887:C915">
     <sortCondition ref="C887:C915"/>
   </sortState>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -9836,8 +9858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9845,7 +9867,7 @@
     <col min="1" max="1" width="40.3984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.3984375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
@@ -9867,7 +9889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>324</v>
       </c>
@@ -9877,8 +9899,8 @@
       <c r="C2" s="73">
         <v>2022012801</v>
       </c>
-      <c r="D2" s="86" t="s">
-        <v>411</v>
+      <c r="D2" s="85" t="s">
+        <v>405</v>
       </c>
       <c r="E2" s="57" t="s">
         <v>326</v>
@@ -9886,7 +9908,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://cavateco.terrafirma.co.mz:8080/las_zambezia/submission" xr:uid="{D8CBA354-67C9-4FC5-B280-DEE77DCADF94}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://cavateco.terrafirma.co.mz:8080/sandbox/submission" xr:uid="{A5DF4B96-8A6C-46D2-BD1A-2AE33137CE68}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/xlsx/M&E/indicadores_form_3.xlsx
+++ b/xlsx/M&E/indicadores_form_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_micaia\xlsx\M&amp;E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F0337-7DAC-4728-8C8C-C394C3BC7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182FFF25-E8C8-40E4-8D3D-CC9C055E22A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="413">
   <si>
     <t>type</t>
   </si>
@@ -532,9 +532,6 @@
   </si>
   <si>
     <t>threat_sources</t>
-  </si>
-  <si>
-    <t>select_one threat_sources</t>
   </si>
   <si>
     <t>security_fam</t>
@@ -738,9 +735,6 @@
   </si>
   <si>
     <t>Qual é o género do(a) entrevistado(a)?</t>
-  </si>
-  <si>
-    <t>Qual é a fonte de ameaça que o(a) senhor(a) sente actualmente ou que deu origem de perda da terra?</t>
   </si>
   <si>
     <t xml:space="preserve">Já teve experiência pessoal de um conflito de terra durante os últimos dois anos? </t>
@@ -1325,14 +1319,30 @@
   <si>
     <t>pulldata('povoado_names_micaia_manica', 'village_name',  'village_id_key', ${village_id})</t>
   </si>
+  <si>
+    <t>Nunca estudou</t>
+  </si>
+  <si>
+    <t>select_multiple threat_sources</t>
+  </si>
+  <si>
+    <t>Qual é a fonte, ou quais são as fontes, de ameaça que o(a) senhor(a) sente actualmente ou que deu origem de perda da terra?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1639,435 +1649,437 @@
   </borders>
   <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="245"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="245" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="245" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="234" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="245"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="245" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="245" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="244" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="244" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="246">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2655,10 +2667,10 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2770,7 +2782,7 @@
         <v>31</v>
       </c>
       <c r="N6" s="57" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="57" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2778,10 +2790,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O7" s="86"/>
     </row>
@@ -2808,7 +2820,7 @@
       </c>
       <c r="N9" s="86"/>
       <c r="O9" s="87" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2819,7 +2831,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2836,7 +2848,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.3">
@@ -2844,10 +2856,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J13" s="79" t="s">
         <v>20</v>
@@ -2855,24 +2867,24 @@
     </row>
     <row r="14" spans="1:16" s="79" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="79" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D14" s="81"/>
       <c r="F14" s="82" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G14" s="82"/>
       <c r="J14" s="79" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="83" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="79" customFormat="1" x14ac:dyDescent="0.3">
@@ -2880,10 +2892,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N15" s="83" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2897,7 +2909,7 @@
         <v>49</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>20</v>
@@ -2908,13 +2920,13 @@
     </row>
     <row r="17" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="57" t="s">
         <v>264</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>266</v>
       </c>
       <c r="J17" s="57" t="s">
         <v>20</v>
@@ -2925,16 +2937,16 @@
     </row>
     <row r="18" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="57" t="s">
         <v>374</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>376</v>
       </c>
       <c r="J18" s="57" t="s">
         <v>20</v>
@@ -2945,16 +2957,16 @@
     </row>
     <row r="19" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="57" t="s">
         <v>377</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>378</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>379</v>
       </c>
       <c r="J19" s="57" t="s">
         <v>20</v>
@@ -2965,19 +2977,19 @@
     </row>
     <row r="20" spans="1:14" s="77" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="J20" s="77" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="87" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M20" s="86"/>
       <c r="N20" s="86"/>
@@ -2987,11 +2999,11 @@
         <v>30</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L21" s="83"/>
       <c r="N21" s="83" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -3002,7 +3014,7 @@
         <v>115</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J22" s="57" t="s">
         <v>20</v>
@@ -3033,7 +3045,7 @@
         <v>91</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="26"/>
       <c r="F24" s="12"/>
@@ -3096,13 +3108,13 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D27" s="26"/>
       <c r="F27" s="12"/>
@@ -3131,7 +3143,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>36</v>
@@ -3139,13 +3151,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D30" s="26"/>
       <c r="F30" s="12"/>
@@ -3165,10 +3177,10 @@
         <v>158</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D31" s="26"/>
       <c r="F31" s="12"/>
@@ -3188,10 +3200,10 @@
         <v>158</v>
       </c>
       <c r="B32" s="54" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D32" s="26"/>
       <c r="F32" s="12"/>
@@ -3211,10 +3223,10 @@
         <v>158</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D33" s="26"/>
       <c r="F33" s="12"/>
@@ -3234,10 +3246,10 @@
         <v>158</v>
       </c>
       <c r="B34" s="54" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D34" s="26"/>
       <c r="F34" s="12"/>
@@ -3263,10 +3275,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>36</v>
@@ -3277,10 +3289,10 @@
         <v>158</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D37" s="26"/>
       <c r="F37" s="12"/>
@@ -3300,10 +3312,10 @@
         <v>158</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D38" s="26"/>
       <c r="F38" s="12"/>
@@ -3320,13 +3332,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="50" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D39" s="26"/>
       <c r="F39" s="12"/>
@@ -3346,10 +3358,10 @@
         <v>158</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D40" s="26"/>
       <c r="F40" s="12"/>
@@ -3378,7 +3390,7 @@
         <v>146</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J42" s="25" t="s">
         <v>20</v>
@@ -3388,17 +3400,17 @@
       </c>
     </row>
     <row r="43" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
-        <v>166</v>
+      <c r="A43" s="89" t="s">
+        <v>411</v>
       </c>
       <c r="B43" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>226</v>
+        <v>169</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>412</v>
       </c>
       <c r="G43" s="49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J43" s="28" t="s">
         <v>20</v>
@@ -3412,13 +3424,13 @@
         <v>25</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G44" s="49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>164</v>
@@ -3431,10 +3443,10 @@
         <v>162</v>
       </c>
       <c r="B45" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>167</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>168</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
@@ -3446,17 +3458,17 @@
       </c>
     </row>
     <row r="46" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="37" t="s">
-        <v>166</v>
+      <c r="A46" s="89" t="s">
+        <v>411</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>226</v>
+        <v>171</v>
+      </c>
+      <c r="C46" s="89" t="s">
+        <v>412</v>
       </c>
       <c r="G46" s="49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J46" s="28" t="s">
         <v>20</v>
@@ -3470,13 +3482,13 @@
         <v>25</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" s="44" t="s">
         <v>163</v>
       </c>
       <c r="G47" s="49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H47" s="37" t="s">
         <v>164</v>
@@ -3489,10 +3501,10 @@
         <v>35</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L48" s="57" t="s">
         <v>36</v>
@@ -3500,37 +3512,37 @@
     </row>
     <row r="49" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" s="57" t="s">
         <v>383</v>
-      </c>
-      <c r="B49" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>385</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="57" t="s">
         <v>20</v>
       </c>
       <c r="L49" s="57" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J50" s="57" t="s">
         <v>20</v>
       </c>
       <c r="L50" s="57" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -3544,10 +3556,10 @@
         <v>158</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J52" s="37" t="s">
         <v>20</v>
@@ -3561,13 +3573,13 @@
         <v>35</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L53" s="32" t="s">
         <v>36</v>
@@ -3575,13 +3587,13 @@
     </row>
     <row r="54" spans="1:12" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="41" t="s">
-        <v>184</v>
-      </c>
       <c r="C54" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G54" s="37"/>
       <c r="J54" s="37" t="s">
@@ -3593,13 +3605,13 @@
     </row>
     <row r="55" spans="1:12" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>189</v>
-      </c>
       <c r="C55" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G55" s="37"/>
       <c r="J55" s="37" t="s">
@@ -3611,13 +3623,13 @@
     </row>
     <row r="56" spans="1:12" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J56" s="37" t="s">
         <v>20</v>
@@ -3637,10 +3649,10 @@
         <v>157</v>
       </c>
       <c r="B58" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="45" t="s">
         <v>212</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>213</v>
       </c>
       <c r="J58" s="32" t="s">
         <v>20</v>
@@ -3654,10 +3666,10 @@
         <v>157</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J59" s="32" t="s">
         <v>20</v>
@@ -3668,13 +3680,13 @@
     </row>
     <row r="60" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C60" s="69" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J60" s="32" t="s">
         <v>20</v>
@@ -3685,13 +3697,13 @@
     </row>
     <row r="61" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" s="69" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J61" s="32" t="s">
         <v>20</v>
@@ -3702,13 +3714,13 @@
     </row>
     <row r="62" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="46" t="s">
         <v>228</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>230</v>
       </c>
       <c r="J62" s="46" t="s">
         <v>20</v>
@@ -3730,13 +3742,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C144" sqref="C144"/>
+      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3760,7 +3772,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -4366,40 +4378,40 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="37" t="s">
         <v>175</v>
-      </c>
-      <c r="B68" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" s="40" t="s">
         <v>104</v>
@@ -4410,57 +4422,57 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76" s="40" t="s">
         <v>154</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B77" s="40" t="s">
         <v>104</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -4468,65 +4480,65 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="40" t="s">
         <v>218</v>
-      </c>
-      <c r="B85" s="40" t="s">
-        <v>219</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>130</v>
@@ -4534,10 +4546,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C86" s="39" t="s">
         <v>129</v>
@@ -4545,10 +4557,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C87" s="39" t="s">
         <v>128</v>
@@ -4556,10 +4568,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C88" s="39" t="s">
         <v>127</v>
@@ -4567,7 +4579,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B89" s="40" t="s">
         <v>145</v>
@@ -4578,471 +4590,482 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B91" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="F91" s="55"/>
+        <v>221</v>
+      </c>
+      <c r="C91" s="88" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>271</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="F92" s="55"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="B93" s="56" t="s">
-        <v>281</v>
+        <v>233</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>278</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B94" s="56" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B96" s="56" t="s">
-        <v>285</v>
-      </c>
-      <c r="C96" s="51" t="s">
-        <v>275</v>
+        <v>282</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C97" s="51" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B98" s="56" t="s">
-        <v>288</v>
-      </c>
-      <c r="C98" s="39" t="s">
-        <v>276</v>
+        <v>285</v>
+      </c>
+      <c r="C98" s="51" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B99" s="56" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B100" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" s="39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B101" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="C100" s="39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C104" s="53" t="s">
-        <v>245</v>
+      <c r="C101" s="39" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="53" t="s">
         <v>243</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C105" s="53" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C107" s="53" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B112" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="B115" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="C115" s="53" t="s">
-        <v>292</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" s="53" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B116" s="56" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="B117" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117" s="53" t="s">
         <v>291</v>
-      </c>
-      <c r="B117" s="56" t="s">
-        <v>298</v>
-      </c>
-      <c r="C117" s="53" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B118" s="56" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B119" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="C119" s="53" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="B120" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C119" s="53" t="s">
+      <c r="C120" s="53" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B121" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="C121" s="51" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B122" s="56" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C122" s="51" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B123" s="56" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="C123" s="51" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B124" s="56" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="C124" s="51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B125" s="56" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C125" s="51" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B126" s="56" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C126" s="51" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B127" s="56" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C127" s="51" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B128" s="56" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="C128" s="51" t="s">
-        <v>107</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B129" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="C129" s="71" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="B129" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="71" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="64" t="s">
+        <v>354</v>
+      </c>
+      <c r="B132" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="B131" s="65" t="s">
-        <v>357</v>
-      </c>
-      <c r="C131" s="64" t="s">
-        <v>358</v>
-      </c>
-      <c r="D131" s="64"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="64"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="64"/>
       <c r="D132" s="64"/>
     </row>
-    <row r="134" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="64" t="s">
-        <v>359</v>
-      </c>
-      <c r="B134" s="67" t="s">
-        <v>360</v>
-      </c>
-      <c r="D134" s="64" t="s">
-        <v>361</v>
-      </c>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="64"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="64"/>
     </row>
     <row r="135" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="B135" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="D135" s="64" t="s">
         <v>359</v>
-      </c>
-      <c r="B135" s="67" t="s">
-        <v>362</v>
-      </c>
-      <c r="D135" s="64" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="64" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B136" s="67" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D136" s="64" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="64" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B137" s="67" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D137" s="64" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="64" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B138" s="67" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D138" s="64" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="74" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="B139" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="D139" s="64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="B142" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="C142" s="74" t="s">
         <v>394</v>
       </c>
-      <c r="B141" s="75" t="s">
-        <v>395</v>
-      </c>
-      <c r="C141" s="74" t="s">
-        <v>396</v>
-      </c>
-      <c r="E141" s="76"/>
-      <c r="F141" s="77"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="77"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A887:C915">
-    <sortCondition ref="C887:C915"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A888:C916">
+    <sortCondition ref="C888:C916"/>
   </sortState>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5067,7 +5090,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B1" s="58" t="s">
         <v>1</v>
@@ -5076,13 +5099,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>42</v>
@@ -5090,1647 +5113,1647 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B332" s="59"/>
       <c r="C332" s="59"/>
@@ -6739,7 +6762,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B333" s="59"/>
       <c r="C333" s="59"/>
@@ -6748,7 +6771,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B334" s="59"/>
       <c r="C334" s="59"/>
@@ -6757,7 +6780,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B335" s="59"/>
       <c r="C335" s="59"/>
@@ -6766,7 +6789,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B336" s="59"/>
       <c r="C336" s="59"/>
@@ -6775,7 +6798,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B337" s="59"/>
       <c r="C337" s="59"/>
@@ -6784,7 +6807,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B338" s="59"/>
       <c r="C338" s="59"/>
@@ -6793,7 +6816,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B339" s="59"/>
       <c r="C339" s="59"/>
@@ -6802,7 +6825,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B340" s="59"/>
       <c r="C340" s="59"/>
@@ -6811,7 +6834,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B341" s="59"/>
       <c r="C341" s="59"/>
@@ -6820,7 +6843,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B342" s="59"/>
       <c r="C342" s="59"/>
@@ -6829,7 +6852,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B343" s="59"/>
       <c r="C343" s="59"/>
@@ -6838,7 +6861,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B344" s="59"/>
       <c r="C344" s="59"/>
@@ -6847,7 +6870,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B345" s="59"/>
       <c r="C345" s="59"/>
@@ -6856,7 +6879,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B346" s="59"/>
       <c r="C346" s="59"/>
@@ -6865,7 +6888,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B347" s="59"/>
       <c r="C347" s="59"/>
@@ -6874,7 +6897,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B348" s="59"/>
       <c r="C348" s="59"/>
@@ -6883,7 +6906,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B349" s="59"/>
       <c r="C349" s="59"/>
@@ -6892,7 +6915,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B350" s="59"/>
       <c r="C350" s="59"/>
@@ -6901,7 +6924,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B351" s="59"/>
       <c r="C351" s="59"/>
@@ -6910,7 +6933,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B352" s="59"/>
       <c r="C352" s="59"/>
@@ -6919,7 +6942,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B353" s="59"/>
       <c r="C353" s="59"/>
@@ -6928,7 +6951,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B354" s="59"/>
       <c r="C354" s="59"/>
@@ -6937,7 +6960,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B355" s="59"/>
       <c r="C355" s="59"/>
@@ -6946,7 +6969,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B356" s="59"/>
       <c r="C356" s="59"/>
@@ -6955,7 +6978,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B357" s="59"/>
       <c r="C357" s="59"/>
@@ -6964,7 +6987,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B358" s="59"/>
       <c r="C358" s="59"/>
@@ -6973,7 +6996,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B359" s="59"/>
       <c r="C359" s="59"/>
@@ -6982,7 +7005,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B360" s="59"/>
       <c r="C360" s="59"/>
@@ -6991,7 +7014,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B361" s="59"/>
       <c r="C361" s="59"/>
@@ -7000,7 +7023,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B362" s="59"/>
       <c r="C362" s="59"/>
@@ -7009,7 +7032,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B363" s="59"/>
       <c r="C363" s="59"/>
@@ -7018,7 +7041,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B364" s="59"/>
       <c r="C364" s="59"/>
@@ -7027,7 +7050,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B365" s="59"/>
       <c r="C365" s="59"/>
@@ -7036,7 +7059,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B366" s="59"/>
       <c r="C366" s="59"/>
@@ -7045,7 +7068,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B367" s="59"/>
       <c r="C367" s="59"/>
@@ -7054,7 +7077,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B368" s="59"/>
       <c r="C368" s="59"/>
@@ -7063,7 +7086,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B369" s="59"/>
       <c r="C369" s="59"/>
@@ -7072,7 +7095,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B370" s="59"/>
       <c r="C370" s="59"/>
@@ -7081,7 +7104,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B371" s="59"/>
       <c r="C371" s="59"/>
@@ -7090,7 +7113,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B372" s="59"/>
       <c r="C372" s="59"/>
@@ -7099,7 +7122,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B373" s="59"/>
       <c r="C373" s="59"/>
@@ -7108,7 +7131,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B374" s="59"/>
       <c r="C374" s="59"/>
@@ -7117,7 +7140,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B375" s="59"/>
       <c r="C375" s="59"/>
@@ -7126,7 +7149,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B376" s="59"/>
       <c r="C376" s="59"/>
@@ -7135,7 +7158,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B377" s="59"/>
       <c r="C377" s="59"/>
@@ -7144,1050 +7167,1050 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A528" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A529" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A530" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A531" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A532" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A533" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A534" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A535" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A536" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A537" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A538" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A539" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A540" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A541" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A542" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A543" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A544" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A545" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A546" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A547" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A548" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A549" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A550" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A551" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A552" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A553" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A554" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A555" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A556" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A557" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A558" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A559" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A560" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A561" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A562" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A563" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A564" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A565" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A566" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A567" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A568" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A569" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A570" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A571" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A572" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A573" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A574" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A575" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A576" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="58" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B584" s="60"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="58" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B585" s="60"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="58" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B586" s="60"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="58" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B587" s="60"/>
     </row>
@@ -8232,67 +8255,67 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B596" s="60"/>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B597" s="60"/>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B598" s="60"/>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B599" s="60"/>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B600" s="60"/>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B601" s="60"/>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B602" s="60"/>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B603" s="60"/>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B604" s="60"/>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B605" s="60"/>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B606" s="60"/>
     </row>
@@ -8376,131 +8399,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B622" s="60"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B623" s="60"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B626" s="60"/>
       <c r="C626" s="61"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B627" s="60"/>
       <c r="C627" s="61"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B628" s="60"/>
       <c r="C628" s="61"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B629" s="60"/>
       <c r="C629" s="61"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B630" s="60"/>
       <c r="C630" s="61"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B631" s="60"/>
       <c r="C631" s="61"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B632" s="60"/>
       <c r="C632" s="61"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B633" s="60"/>
       <c r="C633" s="61"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B634" s="60"/>
       <c r="C634" s="61"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B635" s="60"/>
       <c r="C635" s="61"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B636" s="60"/>
       <c r="C636" s="61"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B637" s="60"/>
       <c r="C637" s="61"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B638" s="60"/>
       <c r="C638" s="61"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B639" s="60"/>
       <c r="C639" s="61"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B640" s="60"/>
       <c r="C640" s="61"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B641" s="60"/>
       <c r="C641" s="61"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B642" s="60"/>
       <c r="C642" s="61"/>
@@ -8512,168 +8535,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B644" s="62"/>
       <c r="C644" s="61"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B645" s="62"/>
       <c r="C645" s="61"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B647" s="60"/>
       <c r="C647" s="61"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B648" s="60"/>
       <c r="C648" s="61"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B649" s="60"/>
       <c r="C649" s="61"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B650" s="60"/>
       <c r="C650" s="61"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B651" s="60"/>
       <c r="C651" s="61"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B652" s="60"/>
       <c r="C652" s="61"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B653" s="60"/>
       <c r="C653" s="61"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B654" s="60"/>
       <c r="C654" s="61"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B655" s="60"/>
       <c r="C655" s="61"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B656" s="60"/>
       <c r="C656" s="61"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B657" s="60"/>
       <c r="C657" s="61"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B658" s="60"/>
       <c r="C658" s="61"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B659" s="60"/>
       <c r="C659" s="61"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B660" s="60"/>
       <c r="C660" s="61"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B661" s="60"/>
       <c r="C661" s="61"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B662" s="60"/>
       <c r="C662" s="61"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B663" s="60"/>
       <c r="C663" s="61"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B664" s="60"/>
       <c r="C664" s="61"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B665" s="60"/>
       <c r="C665" s="61"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="61" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B668" s="60"/>
       <c r="C668" s="61"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="61" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B669" s="60"/>
       <c r="C669" s="61"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="61" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B670" s="60"/>
       <c r="C670" s="61"/>
@@ -8690,483 +8713,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B673" s="60"/>
       <c r="C673" s="61"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B674" s="60"/>
       <c r="C674" s="61"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B675" s="60"/>
       <c r="C675" s="61"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B676" s="60"/>
       <c r="C676" s="61"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B677" s="60"/>
       <c r="C677" s="61"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B678" s="60"/>
       <c r="C678" s="61"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B679" s="60"/>
       <c r="C679" s="61"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B680" s="60"/>
       <c r="C680" s="61"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B681" s="60"/>
       <c r="C681" s="61"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B682" s="60"/>
       <c r="C682" s="61"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B684" s="60"/>
       <c r="C684" s="61"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B685" s="60"/>
       <c r="C685" s="61"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B686" s="60"/>
       <c r="C686" s="61"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B687" s="60"/>
       <c r="C687" s="61"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B688" s="60"/>
       <c r="C688" s="61"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B689" s="60"/>
       <c r="C689" s="61"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B690" s="60"/>
       <c r="C690" s="61"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B691" s="60"/>
       <c r="C691" s="61"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B692" s="60"/>
       <c r="C692" s="61"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B693" s="60"/>
       <c r="C693" s="61"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="61" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B694" s="60"/>
       <c r="C694" s="61"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B696" s="60"/>
       <c r="C696" s="61"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B697" s="60"/>
       <c r="C697" s="61"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B698" s="60"/>
       <c r="C698" s="61"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B699" s="60"/>
       <c r="C699" s="61"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B700" s="60"/>
       <c r="C700" s="61"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B701" s="60"/>
       <c r="C701" s="61"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B702" s="60"/>
       <c r="C702" s="61"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B703" s="60"/>
       <c r="C703" s="61"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B704" s="60"/>
       <c r="C704" s="61"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B705" s="60"/>
       <c r="C705" s="61"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B706" s="60"/>
       <c r="C706" s="61"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B707" s="60"/>
       <c r="C707" s="61"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B709" s="60"/>
       <c r="C709" s="61"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B710" s="60"/>
       <c r="C710" s="61"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B711" s="60"/>
       <c r="C711" s="61"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B712" s="60"/>
       <c r="C712" s="61"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B714" s="60"/>
       <c r="C714" s="61"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B715" s="60"/>
       <c r="C715" s="61"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B716" s="60"/>
       <c r="C716" s="61"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B717" s="60"/>
       <c r="C717" s="61"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B718" s="60"/>
       <c r="C718" s="61"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B719" s="60"/>
       <c r="C719" s="61"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B720" s="60"/>
       <c r="C720" s="61"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B721" s="60"/>
       <c r="C721" s="61"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B722" s="60"/>
       <c r="C722" s="61"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B723" s="60"/>
       <c r="C723" s="61"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B724" s="60"/>
       <c r="C724" s="61"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B725" s="60"/>
       <c r="C725" s="61"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B726" s="60"/>
       <c r="C726" s="61"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B727" s="60"/>
       <c r="C727" s="61"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B728" s="60"/>
       <c r="C728" s="61"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B729" s="60"/>
       <c r="C729" s="61"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B730" s="60"/>
       <c r="C730" s="61"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B731" s="60"/>
       <c r="C731" s="61"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B732" s="60"/>
       <c r="C732" s="61"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B733" s="60"/>
       <c r="C733" s="61"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B734" s="60"/>
       <c r="C734" s="61"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B735" s="60"/>
       <c r="C735" s="61"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B736" s="60"/>
       <c r="C736" s="61"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B737" s="60"/>
       <c r="C737" s="61"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B738" s="60"/>
       <c r="C738" s="61"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B739" s="60"/>
       <c r="C739" s="61"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B740" s="60"/>
       <c r="C740" s="61"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="61" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B742" s="60"/>
       <c r="C742" s="61"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="61" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B743" s="60"/>
       <c r="C743" s="61"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="61" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B744" s="60"/>
       <c r="C744" s="61"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="61" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B745" s="60"/>
       <c r="C745" s="61"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="61" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B746" s="60"/>
       <c r="C746" s="61"/>
@@ -9178,63 +9201,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B748" s="60"/>
       <c r="C748" s="61"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B749" s="60"/>
       <c r="C749" s="61"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B750" s="60"/>
       <c r="C750" s="61"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B751" s="60"/>
       <c r="C751" s="61"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B752" s="60"/>
       <c r="C752" s="61"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B753" s="60"/>
       <c r="C753" s="61"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B754" s="60"/>
       <c r="C754" s="61"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B755" s="60"/>
       <c r="C755" s="61"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B756" s="60"/>
       <c r="C756" s="61"/>
@@ -9246,112 +9269,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B758" s="60"/>
       <c r="C758" s="61"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B759" s="60"/>
       <c r="C759" s="61"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B760" s="60"/>
       <c r="C760" s="61"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B761" s="60"/>
       <c r="C761" s="61"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B762" s="60"/>
       <c r="C762" s="61"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B763" s="60"/>
       <c r="C763" s="61"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B764" s="60"/>
       <c r="C764" s="61"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B765" s="60"/>
       <c r="C765" s="61"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B766" s="60"/>
       <c r="C766" s="61"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B767" s="60"/>
       <c r="C767" s="61"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B768" s="60"/>
       <c r="C768" s="61"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B769" s="60"/>
       <c r="C769" s="61"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B770" s="60"/>
       <c r="C770" s="61"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B771" s="60"/>
       <c r="C771" s="61"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B772" s="60"/>
       <c r="C772" s="61"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="61" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B773" s="60"/>
       <c r="C773" s="61"/>
@@ -9363,147 +9386,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B775" s="60"/>
       <c r="C775" s="61"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B776" s="60"/>
       <c r="C776" s="61"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B777" s="60"/>
       <c r="C777" s="61"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B778" s="60"/>
       <c r="C778" s="61"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B779" s="60"/>
       <c r="C779" s="61"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B780" s="60"/>
       <c r="C780" s="61"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B781" s="60"/>
       <c r="C781" s="61"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B782" s="60"/>
       <c r="C782" s="61"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B783" s="60"/>
       <c r="C783" s="61"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B784" s="60"/>
       <c r="C784" s="61"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B785" s="60"/>
       <c r="C785" s="61"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B786" s="60"/>
       <c r="C786" s="61"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B787" s="60"/>
       <c r="C787" s="61"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B788" s="60"/>
       <c r="C788" s="61"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B789" s="60"/>
       <c r="C789" s="61"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B790" s="60"/>
       <c r="C790" s="61"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B791" s="60"/>
       <c r="C791" s="61"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B792" s="60"/>
       <c r="C792" s="61"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B793" s="60"/>
       <c r="C793" s="61"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B794" s="60"/>
       <c r="C794" s="61"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="61" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B795" s="60"/>
       <c r="C795" s="61"/>
@@ -9515,14 +9538,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B797" s="60"/>
       <c r="C797" s="61"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B798" s="60"/>
       <c r="C798" s="61"/>
@@ -9534,21 +9557,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B800" s="60"/>
       <c r="C800" s="61"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A801" s="61" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B801" s="60"/>
       <c r="C801" s="61"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A803" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B803" s="60"/>
       <c r="C803" s="61"/>
@@ -9558,7 +9581,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A804" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B804" s="60"/>
       <c r="C804" s="61"/>
@@ -9568,7 +9591,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A805" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B805" s="60"/>
       <c r="C805" s="61"/>
@@ -9578,7 +9601,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A806" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B806" s="60"/>
       <c r="C806" s="61"/>
@@ -9588,7 +9611,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A807" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B807" s="60"/>
       <c r="C807" s="61"/>
@@ -9598,7 +9621,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A808" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B808" s="60"/>
       <c r="C808" s="61"/>
@@ -9608,7 +9631,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A809" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B809" s="60"/>
       <c r="C809" s="61"/>
@@ -9618,7 +9641,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A810" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B810" s="60"/>
       <c r="C810" s="61"/>
@@ -9628,7 +9651,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A811" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B811" s="60"/>
       <c r="C811" s="61"/>
@@ -9638,7 +9661,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A812" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B812" s="60"/>
       <c r="C812" s="61"/>
@@ -9648,204 +9671,204 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A814" s="58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B814" s="60"/>
       <c r="C814" s="61"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A815" s="58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B815" s="60"/>
       <c r="C815" s="61"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A816" s="58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B816" s="60"/>
       <c r="C816" s="61"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B817" s="60"/>
       <c r="C817" s="61"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B818" s="60"/>
       <c r="C818" s="61"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B819" s="60"/>
       <c r="C819" s="61"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="58" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B820" s="60"/>
       <c r="C820" s="61"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B822" s="60"/>
       <c r="C822" s="61"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B823" s="60"/>
       <c r="C823" s="61"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B824" s="60"/>
       <c r="C824" s="61"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B825" s="60"/>
       <c r="C825" s="61"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B826" s="60"/>
       <c r="C826" s="61"/>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A828" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B828" s="60"/>
       <c r="C828" s="63"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A829" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B829" s="60"/>
       <c r="C829" s="61"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A830" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B830" s="60"/>
       <c r="C830" s="61"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A831" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B831" s="60"/>
       <c r="C831" s="61"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A832" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B832" s="60"/>
       <c r="C832" s="61"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A833" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B833" s="60"/>
       <c r="C833" s="61"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A834" s="58" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B834" s="60"/>
       <c r="C834" s="61"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A835" s="61" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B835" s="60"/>
       <c r="C835" s="61"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B837" s="60"/>
       <c r="C837" s="63"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B838" s="60"/>
       <c r="C838" s="61"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B839" s="60"/>
       <c r="C839" s="61"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" s="58" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B840" s="60"/>
       <c r="C840" s="61"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" s="61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B842" s="60"/>
       <c r="C842" s="61"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" s="61" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B843" s="60"/>
       <c r="C843" s="61"/>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="58" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="58" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A847" s="58" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A848" s="58" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -9859,7 +9882,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9891,19 +9914,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="73">
+        <v>2022081501</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>324</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="73">
-        <v>2022012801</v>
-      </c>
-      <c r="D2" s="85" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
